--- a/templates/export/events.xlsx
+++ b/templates/export/events.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author>root</author>
+    <author>Windows User</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -33,9 +28,8 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="E9")</t>
+          <t>jx:area(lastCell="F9")</t>
         </r>
       </text>
     </comment>
@@ -47,23 +41,22 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="E9" multisheet="sheetNames")</t>
+          <t>jx:each(items="devices", var="device", lastCell="F9" multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="1">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="event", lastCell="E9")</t>
+          <t>jx:each(items="device.objects", var="event", lastCell="F9")</t>
         </r>
       </text>
     </comment>
@@ -72,72 +65,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.deviceName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.groupName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geofence Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", event.eventTime, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${event.type}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${geofenceNames[event.geofenceId]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${maintenanceNames[event.maintenanceId]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${event.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Report type:</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Device:</t>
+  </si>
+  <si>
+    <t>${device.deviceName}</t>
+  </si>
+  <si>
+    <t>Group:</t>
+  </si>
+  <si>
+    <t>${device.groupName}</t>
+  </si>
+  <si>
+    <t>Period:</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Geofence Name</t>
+  </si>
+  <si>
+    <t>Maintenance Name</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", event.eventTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${event.type}</t>
+  </si>
+  <si>
+    <t>${geofenceNames[event.geofenceId]}</t>
+  </si>
+  <si>
+    <t>${maintenanceNames[event.maintenanceId]}</t>
+  </si>
+  <si>
+    <t>${event.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
+  </si>
+  <si>
+    <t>Device Name</t>
+  </si>
+  <si>
+    <t>${event.deviceName}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,22 +143,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
@@ -176,7 +158,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -191,7 +173,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -199,7 +181,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
@@ -218,7 +200,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -231,186 +219,157 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="15"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="15"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF444444"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="007F7F7F"/>
+      <rgbColor rgb="005B9BD5"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00444444"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -424,34 +383,42 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12565800" cy="9524520"/>
+          <a:ext cx="12077700" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
@@ -469,34 +436,42 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12565800" cy="9524520"/>
+          <a:ext cx="12077700" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
@@ -514,39 +489,47 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12565800" cy="9524520"/>
+          <a:ext cx="12077700" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -559,39 +542,47 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10013400" cy="9524520"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -604,39 +595,47 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10013400" cy="9524520"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -649,34 +648,42 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10013400" cy="9524520"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
@@ -684,33 +691,326 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.43"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="5" max="5" width="55.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,14 +1021,14 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -739,7 +1039,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,7 +1050,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -761,56 +1061,57 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/export/events.xlsx
+++ b/templates/export/events.xlsx
@@ -65,18 +65,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Report type:</t>
   </si>
   <si>
     <t>Events</t>
-  </si>
-  <si>
-    <t>Device:</t>
-  </si>
-  <si>
-    <t>${device.deviceName}</t>
   </si>
   <si>
     <t>Group:</t>
@@ -438,7 +432,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -491,7 +485,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -506,59 +500,6 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:srgbClr val="000000"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1133280</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -651,6 +592,59 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:srgbClr val="000000"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1133280</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -980,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,7 +985,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1029,22 +1023,18 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1052,10 +1042,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1070,42 +1060,42 @@
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/templates/export/events.xlsx
+++ b/templates/export/events.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIGO\Desktop\APSG-TRACKING-master\templates\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA8452-5BD0-4963-8086-39C0B5A2E1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="1470" yWindow="795" windowWidth="36930" windowHeight="14805" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>root</author>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="1">
+    <comment ref="A9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,23 +118,23 @@
     <t>${maintenanceNames[event.maintenanceId]}</t>
   </si>
   <si>
-    <t>${event.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
-  </si>
-  <si>
     <t>Device Name</t>
   </si>
   <si>
     <t>${event.deviceName}</t>
+  </si>
+  <si>
+    <t>${event.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "").replaceAll("alarm=", "")}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,7 +292,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,6 +365,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,7 +393,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -432,7 +452,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -485,7 +511,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -538,7 +570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -591,7 +629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -644,7 +688,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -728,7 +778,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -780,7 +830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -974,37 +1024,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" customWidth="1"/>
-    <col min="5" max="5" width="55.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,21 +1065,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1090,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1051,16 +1101,16 @@
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -1078,9 +1128,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1">
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>11</v>
@@ -1095,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
